--- a/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.115</t>
+    <t>urn:oid:1.2.250.1.213.3.4.115</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -238,9 +244,6 @@
   </si>
   <si>
     <t>Décision clôturée par la MDPH</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -380,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -486,20 +489,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -521,218 +532,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,178 +72,175 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Motif du statut de la personne prise en charge au sein d'un ESMS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Le plateau technique n'est pas adapté à la prise en charge de l'usager</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Déménagement</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Erreur d'utilisation du logiciel</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Eloignement géographique</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Les ressources de l'ESMS ne sont pas suffisantes</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>L'ESMS n'est pas adapté au projet de vie actuel de l'usager</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Le type de handicap ne relève pas de l'ESMS</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>La situation de l'usager a changé, l'ESMS n'est pas adapté</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>L'usager ou son représentant légal refuse de s'inscrire dans l'ESMS</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>L'usager a été admis dans un autre ESMS, l'orientation n'est plus pertinente</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>L'usager a déménagé, l'orientation n'est plus pertinente géographiquement</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>L'usager ou son représentant légal refuse d'adhérer au projet de vie de l'ESMS</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>L'âge de l'usager est incompatible</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>L'usager est décédé</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>L'usager a fait valoir ses droits à la retraite (ESAT)</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>L'ESMS n'a pas réussi à joindre l'usager</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>L'usager a pris contact avec l'ESMS</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>L'ESMS a pris contact avec l'usager</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>L'usager a visité l'ESMS</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>L'ESMS a envoyé une documentation à l'usager</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Pour placer l'usager en liste d'attente</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Pour prendre en charge l'usager à temps adapté</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Une autre décision annule et remplace cette décision</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Décision clôturée par la MDPH</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Motif du statut de la personne prise en charge au sein d'un ESMS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Le plateau technique n'est pas adapté à la prise en charge de l'usager</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Déménagement</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Erreur d'utilisation du logiciel</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Eloignement géographique</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Les ressources de l'ESMS ne sont pas suffisantes</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>L'ESMS n'est pas adapté au projet de vie actuel de l'usager</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Le type de handicap ne relève pas de l'ESMS</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>La situation de l'usager a changé, l'ESMS n'est pas adapté</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>L'usager ou son représentant légal refuse de s'inscrire dans l'ESMS</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>L'usager a été admis dans un autre ESMS, l'orientation n'est plus pertinente</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>L'usager a déménagé, l'orientation n'est plus pertinente géographiquement</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>L'usager ou son représentant légal refuse d'adhérer au projet de vie de l'ESMS</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>L'âge de l'usager est incompatible</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>L'usager est décédé</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>L'usager a fait valoir ses droits à la retraite (ESAT)</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>L'ESMS n'a pas réussi à joindre l'usager</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>L'usager a pris contact avec l'ESMS</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>L'ESMS a pris contact avec l'usager</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>L'usager a visité l'ESMS</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>L'ESMS a envoyé une documentation à l'usager</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Pour placer l'usager en liste d'attente</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>Pour prendre en charge l'usager à temps adapté</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>Une autre décision annule et remplace cette décision</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Décision clôturée par la MDPH</t>
   </si>
   <si>
     <t>System URI</t>
@@ -383,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -489,28 +486,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -532,218 +521,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,175 +75,172 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Motif du statut de la personne prise en charge au sein d'un ESMS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Le plateau technique n'est pas adapté à la prise en charge de l'usager</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Déménagement</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Erreur d'utilisation du logiciel</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Eloignement géographique</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Les ressources de l'ESMS ne sont pas suffisantes</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>L'ESMS n'est pas adapté au projet de vie actuel de l'usager</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Le type de handicap ne relève pas de l'ESMS</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>La situation de l'usager a changé, l'ESMS n'est pas adapté</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>L'usager ou son représentant légal refuse de s'inscrire dans l'ESMS</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>L'usager a été admis dans un autre ESMS, l'orientation n'est plus pertinente</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>L'usager a déménagé, l'orientation n'est plus pertinente géographiquement</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>L'usager ou son représentant légal refuse d'adhérer au projet de vie de l'ESMS</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>L'âge de l'usager est incompatible</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>L'usager est décédé</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>L'usager a fait valoir ses droits à la retraite (ESAT)</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>L'ESMS n'a pas réussi à joindre l'usager</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>L'usager a pris contact avec l'ESMS</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>L'ESMS a pris contact avec l'usager</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>L'usager a visité l'ESMS</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>L'ESMS a envoyé une documentation à l'usager</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Pour placer l'usager en liste d'attente</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Pour prendre en charge l'usager à temps adapté</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Une autre décision annule et remplace cette décision</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Décision clôturée par la MDPH</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Motif du statut de la personne prise en charge au sein d'un ESMS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Le plateau technique n'est pas adapté à la prise en charge de l'usager</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Déménagement</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Erreur d'utilisation du logiciel</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Eloignement géographique</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Les ressources de l'ESMS ne sont pas suffisantes</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>L'ESMS n'est pas adapté au projet de vie actuel de l'usager</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Le type de handicap ne relève pas de l'ESMS</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>La situation de l'usager a changé, l'ESMS n'est pas adapté</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>L'usager ou son représentant légal refuse de s'inscrire dans l'ESMS</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>L'usager a été admis dans un autre ESMS, l'orientation n'est plus pertinente</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>L'usager a déménagé, l'orientation n'est plus pertinente géographiquement</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>L'usager ou son représentant légal refuse d'adhérer au projet de vie de l'ESMS</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>L'âge de l'usager est incompatible</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>L'usager est décédé</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>L'usager a fait valoir ses droits à la retraite (ESAT)</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>L'ESMS n'a pas réussi à joindre l'usager</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>L'usager a pris contact avec l'ESMS</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>L'ESMS a pris contact avec l'usager</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>L'usager a visité l'ESMS</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>L'ESMS a envoyé une documentation à l'usager</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Pour placer l'usager en liste d'attente</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>Pour prendre en charge l'usager à temps adapté</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>Une autre décision annule et remplace cette décision</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Décision clôturée par la MDPH</t>
   </si>
   <si>
     <t>System URI</t>
@@ -383,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -489,28 +486,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -532,218 +521,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J251-MotifStatutPersonnePriseChargeESMS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
